--- a/mbs-perturbation/nano/multinomialNB/nearmiss/nano-multinomialNB-nearmiss-results.xlsx
+++ b/mbs-perturbation/nano/multinomialNB/nearmiss/nano-multinomialNB-nearmiss-results.xlsx
@@ -470,13 +470,13 @@
         <v>0.5625</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5543478260869565</v>
+        <v>0.5529411764705883</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.6052631578947367</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.25</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4488095238095238</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3382456140350877</v>
+        <v>0.7246376811594203</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4488095238095238</v>
+        <v>0.7368421052631579</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.625</v>
       </c>
       <c r="C4" t="n">
-        <v>0.75</v>
+        <v>0.5526315789473684</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7493734335839599</v>
+        <v>0.5117157974300832</v>
       </c>
       <c r="E4" t="n">
-        <v>0.75</v>
+        <v>0.5526315789473684</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7619047619047619</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.775</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="D5" t="n">
-        <v>0.774859287054409</v>
+        <v>0.9455882352941176</v>
       </c>
       <c r="E5" t="n">
-        <v>0.775</v>
+        <v>0.9444444444444444</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7272727272727273</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.625</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6050032916392363</v>
+        <v>0.6792750197005517</v>
       </c>
       <c r="E6" t="n">
-        <v>0.625</v>
+        <v>0.7105263157894737</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6057900432900434</v>
+        <v>0.8193181818181818</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6314285714285715</v>
+        <v>0.7099415204678362</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6043658904799298</v>
+        <v>0.6828315820109522</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6314285714285715</v>
+        <v>0.7099415204678362</v>
       </c>
     </row>
   </sheetData>
